--- a/V0/V0.5/V0.5.1/hardware_design/Documents/BOM.xlsx
+++ b/V0/V0.5/V0.5.1/hardware_design/Documents/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malic\OneDrive\Documents\GitHub\Smart-Penetrometer-with-Edge-Computing-and-Intelligent-Embedded-Systems\V0\V0.5\V0.5.1\hardware_design\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF59A5E8-9F18-43EC-A82A-87457D12E636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D10EFAA-8895-4EED-9DF9-50585A52B70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E5037473-AF63-47C0-81C0-953F9BE48636}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="153">
   <si>
     <t>References</t>
   </si>
@@ -83,24 +83,9 @@
     <t>R_1kOhm</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>R_1K</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>RF1_1K</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>RF2_1K</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
@@ -507,6 +492,9 @@
   </si>
   <si>
     <t>B07NSJFQTD</t>
+  </si>
+  <si>
+    <t>R1,R2,R3</t>
   </si>
 </sst>
 </file>
@@ -569,14 +557,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -894,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108F7D11-4887-40B9-A52A-D1927B1E4547}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,7 +903,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -925,28 +912,28 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -960,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -976,7 +963,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -990,7 +977,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1002,11 +989,11 @@
         <v>0.1</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J33" si="0">B3*I3</f>
+        <f t="shared" ref="J3:J31" si="0">B3*I3</f>
         <v>0.2</v>
       </c>
       <c r="K3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1020,7 +1007,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1036,7 +1023,7 @@
         <v>0.2</v>
       </c>
       <c r="K4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1050,7 +1037,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1066,7 +1053,7 @@
         <v>0.4</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1080,7 +1067,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1096,7 +1083,7 @@
         <v>0.2</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1104,16 +1091,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1123,27 +1110,27 @@
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="K7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1156,24 +1143,24 @@
         <v>0.1</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1186,817 +1173,756 @@
         <v>0.1</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
       </c>
       <c r="I10" s="1">
-        <v>0.1</v>
+        <v>0.46</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>116</v>
+        <v>0.46</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
       </c>
       <c r="I11" s="1">
-        <v>0.1</v>
+        <v>8.44</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>116</v>
+        <v>8.44</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I12" s="1">
-        <v>0.46</v>
+        <v>6.35</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>0.46</v>
+        <v>6.35</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I13" s="1">
-        <v>8.44</v>
+        <v>10.74</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>8.44</v>
+        <v>10.74</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="I14" s="1">
-        <v>6.35</v>
+        <v>5.63</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>6.35</v>
+        <v>5.63</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I15" s="1">
-        <v>10.74</v>
+        <v>22.41</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>10.74</v>
+        <v>22.41</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="G16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="1">
-        <v>5.63</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="0"/>
-        <v>5.63</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" t="s">
-        <v>78</v>
+        <v>82</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3030</v>
       </c>
       <c r="I17" s="1">
-        <v>22.41</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>22.41</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="I18" s="1">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
       <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
         <v>85</v>
       </c>
       <c r="F19" t="s">
         <v>86</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="3">
-        <v>3030</v>
+        <v>83</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
       </c>
       <c r="I19" s="1">
-        <v>0.56999999999999995</v>
+        <v>12.35</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>0.56999999999999995</v>
+        <v>12.35</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="G20" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="I20" s="1">
-        <v>0.4</v>
+        <v>0.88</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.88</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G21" t="s">
         <v>88</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="I21" s="1">
-        <v>12.35</v>
+        <v>12.99</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
-        <v>12.35</v>
+        <v>12.99</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" t="s">
         <v>92</v>
       </c>
-      <c r="E22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" t="s">
-        <v>110</v>
-      </c>
       <c r="H22" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I22" s="1">
-        <v>0.88</v>
+        <v>1.45</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
-        <v>0.88</v>
+        <v>1.45</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>2.19</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" s="1">
-        <v>12.99</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="0"/>
-        <v>12.99</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" t="s">
         <v>97</v>
       </c>
-      <c r="H24" t="s">
-        <v>98</v>
-      </c>
       <c r="I24" s="1">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
         <v>121</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" t="s">
-        <v>101</v>
+        <v>119</v>
+      </c>
+      <c r="H25" s="3">
+        <v>26546</v>
       </c>
       <c r="I25" s="1">
-        <v>2.19</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="0"/>
-        <v>2.19</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="H26" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="I26" s="1">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="F27" t="s">
+        <v>123</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" s="3">
-        <v>26546</v>
+        <v>119</v>
+      </c>
+      <c r="H27" t="s">
+        <v>118</v>
       </c>
       <c r="I27" s="1">
-        <v>2.4300000000000002</v>
+        <v>6.25</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
-        <v>2.4300000000000002</v>
+        <v>6.25</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>133</v>
+        <v>110</v>
+      </c>
+      <c r="E28" t="s">
+        <v>146</v>
       </c>
       <c r="G28" t="s">
-        <v>131</v>
-      </c>
-      <c r="H28" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="I28" s="1">
-        <v>3.5</v>
+        <v>0.27</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>0.27</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G29" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H29" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="I29" s="1">
-        <v>6.25</v>
+        <v>4.79</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
-        <v>6.25</v>
+        <v>14.370000000000001</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="F30" t="s">
+        <v>139</v>
+      </c>
       <c r="G30" t="s">
-        <v>150</v>
+        <v>138</v>
+      </c>
+      <c r="H30" t="s">
+        <v>137</v>
       </c>
       <c r="I30" s="1">
-        <v>0.27</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="0"/>
-        <v>0.27</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
+      </c>
+      <c r="F31" t="s">
+        <v>143</v>
       </c>
       <c r="G31" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H31" t="s">
+        <v>141</v>
+      </c>
+      <c r="I31" s="1">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="0"/>
+        <v>16.989999999999998</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I31" s="1">
-        <v>4.79</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" si="0"/>
-        <v>14.370000000000001</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" t="s">
-        <v>142</v>
-      </c>
-      <c r="I32" s="1">
-        <v>4.9000000000000004</v>
+      <c r="I32" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G33" t="s">
-        <v>147</v>
-      </c>
-      <c r="H33" t="s">
-        <v>146</v>
-      </c>
-      <c r="I33" s="1">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="J33" s="1">
-        <f t="shared" si="0"/>
-        <v>16.989999999999998</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I34" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J34" s="1">
-        <f>SUM(J2:J33)</f>
+        <f>SUM(J2:J31)</f>
         <v>138.97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K14" r:id="rId1" display="https://www.digikey.com/en/products/detail/texas-instruments/ADS1118QDGSRQ1/5765079?0=%2Fanalog-to-digital-converters-adc&amp;s=N4IgjCBcpgrAzFUBjKAzAhgGwM4FMAaEAeygG1wAGeAdjEpAF0iAHAFyhAGU2AnASwB2AcxABfIgCYALImghUkTLkIlyIaZQBs9LU1YdI3PkNESQ8aQA4kC9NnxFSkCpICcYLZJr6Q7TjwCIuJEWlo%2B8orKjmou4JJg8JJ6RGCSkvBWesx%2BhsZBZqnuEJH2Kk7qNNI0lLC%2B-kaBpiHgblZutlEOqs4UDIzmALSSnVB8AK496nUDYmJAA" xr:uid="{B06955E4-D538-48C2-9B21-36345FE44CD2}"/>
-    <hyperlink ref="K13" r:id="rId2" xr:uid="{C7B9361F-65D9-47D4-A1B0-360157981C59}"/>
-    <hyperlink ref="K21" r:id="rId3" display="https://www.digikey.com/en/products/detail/tewa-sensors-llc/TT4-PT1000B-T200-1500/8549156" xr:uid="{D7C11522-29C8-4B6E-9ABC-B2B12496B087}"/>
-    <hyperlink ref="K12" r:id="rId4" xr:uid="{26A02CA0-66B7-4EF2-AC6D-A8BD1DE17466}"/>
-    <hyperlink ref="K15" r:id="rId5" xr:uid="{54D8FFDC-6F56-4923-9D45-9DEA09A9D633}"/>
-    <hyperlink ref="K16" r:id="rId6" xr:uid="{5EFF349B-5266-4028-8937-BFB232F81C12}"/>
-    <hyperlink ref="K17" r:id="rId7" xr:uid="{82EA3BC2-557B-46C7-8AD9-A8EFDE941AE1}"/>
-    <hyperlink ref="K18" r:id="rId8" display="https://www.amazon.com/ANMBEST-Adapter-Interface-Conversion-Arduino/dp/B08CMLG4D6/ref=sr_1_8?adgrpid=1334807679097588&amp;hvadid=83425550728335&amp;hvbmt=be&amp;hvdev=c&amp;hvlocphy=79692&amp;hvnetw=o&amp;hvqmt=e&amp;hvtargid=kwd-83425820470630%3Aloc-190&amp;hydadcr=18004_10780277&amp;keywords=sd+card+module&amp;qid=1694991008&amp;sr=8-8" xr:uid="{F557EADE-9533-4878-A925-82639AC3E96C}"/>
-    <hyperlink ref="K19" r:id="rId9" xr:uid="{AAEC9573-FC01-41A0-B9E1-1E11D3AF3FD6}"/>
-    <hyperlink ref="K24" r:id="rId10" display="https://www.grainger.com/product/APPROVED-VENDOR-360-Brass-Rod-1-4-in-Outside-2ABL8?findingMethod=orderHistory&amp;opr=ODOH" xr:uid="{38971C57-285E-4377-BE4A-5D5FDC20F8B5}"/>
-    <hyperlink ref="K25" r:id="rId11" xr:uid="{A94BAFCE-0315-43C6-8D42-5245F47A0AB4}"/>
-    <hyperlink ref="K26" r:id="rId12" display="https://www.grainger.com/product/APPROVED-VENDOR-260-Brass-Round-Tube-5-8-in-48KU75?findingMethod=orderHistory&amp;opr=ODOH" xr:uid="{DC2CF64C-0F3D-410F-BB08-9E7A7E06644C}"/>
-    <hyperlink ref="K23" r:id="rId13" display="https://www.amazon.com/KEYESTUDIO-Quality-Monitoring-XH2-54-3Pin-Connector/dp/B08DGLY3J2/ref=sr_1_19?crid=2VFVO0ZNSAU97&amp;keywords=keyestudio&amp;qid=1701141339&amp;sprefix=keyestudio%2Caps%2C109&amp;sr=8-19" xr:uid="{90A52F99-CA33-4C1D-8F6E-91DF08FC0FA4}"/>
-    <hyperlink ref="K22" r:id="rId14" display="https://www.amazon.com/CR1025-5033LC-Br1025-Lithium-Batteries/dp/B07WQX6Z8W/ref=sr_1_1_sspa?crid=15LBGFFQT0ABX&amp;keywords=cr1025&amp;qid=1701142472&amp;sprefix=cr1025%2Caps%2C125&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1" xr:uid="{B78B29E8-1572-428B-A2C1-1C408A897D92}"/>
-    <hyperlink ref="K29" r:id="rId15" xr:uid="{02EDEB06-9CC6-4A82-A87C-4EB4701C1E46}"/>
-    <hyperlink ref="K27" r:id="rId16" display="https://www.digikey.com/en/products/detail/universal-solder-electronics-ltd/26546/21736865" xr:uid="{2A1594B1-6FC5-4BAA-BE37-A4E83381B688}"/>
-    <hyperlink ref="K28" r:id="rId17" display="https://www.amazon.com/Bingfu-Bulkhead-Extension-Cellular-Amplifier/dp/B081BHHPHQ/ref=sr_1_17_sspa?keywords=sma%2Bfemale%2Bto%2Bsma%2Bmale%2Badapter&amp;qid=1698700216&amp;sr=8-17-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;th=1" xr:uid="{D13DF78D-879A-4898-839D-A6BB7F5CC343}"/>
-    <hyperlink ref="K31" r:id="rId18" display="https://www.amazon.com/uxcell-Solar-Panel-Module-Charger/dp/B073Y3RQSC/ref=sr_1_2?crid=24I3OGXDW50XL&amp;keywords=37mm+x+68mm+solar+cell&amp;qid=1689957460&amp;s=lawn-garden&amp;sprefix=37mm+x+68mm+solar+cell%2Clawngarden%2C72&amp;sr=1-2" xr:uid="{C5CC8AA4-00FA-44AD-B449-53240DA3FB3D}"/>
-    <hyperlink ref="K32" r:id="rId19" xr:uid="{AD52918A-2094-4945-BC41-E70C6AE5E90A}"/>
-    <hyperlink ref="K33" r:id="rId20" display="https://www.amazon.com/EEMB-3700mAh-Rechargeable-Connector-Certified/dp/B08215B4KK/ref=sr_1_1?keywords=3.7v%2B3700%2Bmah&amp;qid=1689978543&amp;sprefix=3.7v%2B3700%2Caps%2C120&amp;sr=8-1&amp;th=1" xr:uid="{9B998F64-CADE-42B7-9B9E-37208DC19A53}"/>
-    <hyperlink ref="K30" r:id="rId21" xr:uid="{7F599A53-7B00-4083-8FE3-DC812D74685B}"/>
-    <hyperlink ref="K20" r:id="rId22" xr:uid="{B7B26934-6BB8-43D9-8641-760BDFC31724}"/>
+    <hyperlink ref="K12" r:id="rId1" display="https://www.digikey.com/en/products/detail/texas-instruments/ADS1118QDGSRQ1/5765079?0=%2Fanalog-to-digital-converters-adc&amp;s=N4IgjCBcpgrAzFUBjKAzAhgGwM4FMAaEAeygG1wAGeAdjEpAF0iAHAFyhAGU2AnASwB2AcxABfIgCYALImghUkTLkIlyIaZQBs9LU1YdI3PkNESQ8aQA4kC9NnxFSkCpICcYLZJr6Q7TjwCIuJEWlo%2B8orKjmou4JJg8JJ6RGCSkvBWesx%2BhsZBZqnuEJH2Kk7qNNI0lLC%2B-kaBpiHgblZutlEOqs4UDIzmALSSnVB8AK496nUDYmJAA" xr:uid="{B06955E4-D538-48C2-9B21-36345FE44CD2}"/>
+    <hyperlink ref="K11" r:id="rId2" xr:uid="{C7B9361F-65D9-47D4-A1B0-360157981C59}"/>
+    <hyperlink ref="K19" r:id="rId3" display="https://www.digikey.com/en/products/detail/tewa-sensors-llc/TT4-PT1000B-T200-1500/8549156" xr:uid="{D7C11522-29C8-4B6E-9ABC-B2B12496B087}"/>
+    <hyperlink ref="K10" r:id="rId4" xr:uid="{26A02CA0-66B7-4EF2-AC6D-A8BD1DE17466}"/>
+    <hyperlink ref="K13" r:id="rId5" xr:uid="{54D8FFDC-6F56-4923-9D45-9DEA09A9D633}"/>
+    <hyperlink ref="K14" r:id="rId6" xr:uid="{5EFF349B-5266-4028-8937-BFB232F81C12}"/>
+    <hyperlink ref="K15" r:id="rId7" xr:uid="{82EA3BC2-557B-46C7-8AD9-A8EFDE941AE1}"/>
+    <hyperlink ref="K16" r:id="rId8" display="https://www.amazon.com/ANMBEST-Adapter-Interface-Conversion-Arduino/dp/B08CMLG4D6/ref=sr_1_8?adgrpid=1334807679097588&amp;hvadid=83425550728335&amp;hvbmt=be&amp;hvdev=c&amp;hvlocphy=79692&amp;hvnetw=o&amp;hvqmt=e&amp;hvtargid=kwd-83425820470630%3Aloc-190&amp;hydadcr=18004_10780277&amp;keywords=sd+card+module&amp;qid=1694991008&amp;sr=8-8" xr:uid="{F557EADE-9533-4878-A925-82639AC3E96C}"/>
+    <hyperlink ref="K17" r:id="rId9" xr:uid="{AAEC9573-FC01-41A0-B9E1-1E11D3AF3FD6}"/>
+    <hyperlink ref="K22" r:id="rId10" display="https://www.grainger.com/product/APPROVED-VENDOR-360-Brass-Rod-1-4-in-Outside-2ABL8?findingMethod=orderHistory&amp;opr=ODOH" xr:uid="{38971C57-285E-4377-BE4A-5D5FDC20F8B5}"/>
+    <hyperlink ref="K23" r:id="rId11" xr:uid="{A94BAFCE-0315-43C6-8D42-5245F47A0AB4}"/>
+    <hyperlink ref="K24" r:id="rId12" display="https://www.grainger.com/product/APPROVED-VENDOR-260-Brass-Round-Tube-5-8-in-48KU75?findingMethod=orderHistory&amp;opr=ODOH" xr:uid="{DC2CF64C-0F3D-410F-BB08-9E7A7E06644C}"/>
+    <hyperlink ref="K21" r:id="rId13" display="https://www.amazon.com/KEYESTUDIO-Quality-Monitoring-XH2-54-3Pin-Connector/dp/B08DGLY3J2/ref=sr_1_19?crid=2VFVO0ZNSAU97&amp;keywords=keyestudio&amp;qid=1701141339&amp;sprefix=keyestudio%2Caps%2C109&amp;sr=8-19" xr:uid="{90A52F99-CA33-4C1D-8F6E-91DF08FC0FA4}"/>
+    <hyperlink ref="K20" r:id="rId14" display="https://www.amazon.com/CR1025-5033LC-Br1025-Lithium-Batteries/dp/B07WQX6Z8W/ref=sr_1_1_sspa?crid=15LBGFFQT0ABX&amp;keywords=cr1025&amp;qid=1701142472&amp;sprefix=cr1025%2Caps%2C125&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1" xr:uid="{B78B29E8-1572-428B-A2C1-1C408A897D92}"/>
+    <hyperlink ref="K27" r:id="rId15" xr:uid="{02EDEB06-9CC6-4A82-A87C-4EB4701C1E46}"/>
+    <hyperlink ref="K25" r:id="rId16" display="https://www.digikey.com/en/products/detail/universal-solder-electronics-ltd/26546/21736865" xr:uid="{2A1594B1-6FC5-4BAA-BE37-A4E83381B688}"/>
+    <hyperlink ref="K26" r:id="rId17" display="https://www.amazon.com/Bingfu-Bulkhead-Extension-Cellular-Amplifier/dp/B081BHHPHQ/ref=sr_1_17_sspa?keywords=sma%2Bfemale%2Bto%2Bsma%2Bmale%2Badapter&amp;qid=1698700216&amp;sr=8-17-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;th=1" xr:uid="{D13DF78D-879A-4898-839D-A6BB7F5CC343}"/>
+    <hyperlink ref="K29" r:id="rId18" display="https://www.amazon.com/uxcell-Solar-Panel-Module-Charger/dp/B073Y3RQSC/ref=sr_1_2?crid=24I3OGXDW50XL&amp;keywords=37mm+x+68mm+solar+cell&amp;qid=1689957460&amp;s=lawn-garden&amp;sprefix=37mm+x+68mm+solar+cell%2Clawngarden%2C72&amp;sr=1-2" xr:uid="{C5CC8AA4-00FA-44AD-B449-53240DA3FB3D}"/>
+    <hyperlink ref="K30" r:id="rId19" xr:uid="{AD52918A-2094-4945-BC41-E70C6AE5E90A}"/>
+    <hyperlink ref="K31" r:id="rId20" display="https://www.amazon.com/EEMB-3700mAh-Rechargeable-Connector-Certified/dp/B08215B4KK/ref=sr_1_1?keywords=3.7v%2B3700%2Bmah&amp;qid=1689978543&amp;sprefix=3.7v%2B3700%2Caps%2C120&amp;sr=8-1&amp;th=1" xr:uid="{9B998F64-CADE-42B7-9B9E-37208DC19A53}"/>
+    <hyperlink ref="K28" r:id="rId21" xr:uid="{7F599A53-7B00-4083-8FE3-DC812D74685B}"/>
+    <hyperlink ref="K18" r:id="rId22" xr:uid="{B7B26934-6BB8-43D9-8641-760BDFC31724}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
